--- a/Werte optimales Gleiten Lilienthal.xlsx
+++ b/Werte optimales Gleiten Lilienthal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ti\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_Bildung\11_Semester\6 SS 19\Labor\IFF\Labor-IFF-Flugversuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>VTAS</t>
   </si>
@@ -86,7 +86,10 @@
     <t>0,108</t>
   </si>
   <si>
-    <t>0,00196</t>
+    <t>Wmin</t>
+  </si>
+  <si>
+    <t>0,0196</t>
   </si>
 </sst>
 </file>
@@ -279,11 +282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324032792"/>
-        <c:axId val="324033184"/>
+        <c:axId val="277536560"/>
+        <c:axId val="277533424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324032792"/>
+        <c:axId val="277536560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -340,12 +343,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324033184"/>
+        <c:crossAx val="277533424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="324033184"/>
+        <c:axId val="277533424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -402,7 +405,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324032792"/>
+        <c:crossAx val="277536560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1307,7 +1310,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1484,33 +1489,47 @@
         <v>2912.9</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <f>2*(0.0196/1.1)*3643*9.81</f>
+        <v>1273.5663054545455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <f>SQRT(2*3642*9.81/(28*1.210137*1.1))</f>
+        <v>43.78515023002933</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
